--- a/AromaTrainModel/AromaTrainModel/AromaTrainExcel.xlsx
+++ b/AromaTrainModel/AromaTrainModel/AromaTrainExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DriveD\Project\Github\..Net\AromaTrainModel\AromaTrainModel\AromaTrainModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DriveD\Project\Github\Mix Project\AromaTrainModel\AromaTrainModel\AromaTrainModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D9E28-3C62-4402-A94F-17C1CE4B258F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA2816A-8950-4176-ADD0-331DBDB7043D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{4A276528-86E1-45F2-B386-29D5490143B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11904" firstSheet="1" activeTab="3" xr2:uid="{4A276528-86E1-45F2-B386-29D5490143B6}"/>
   </bookViews>
   <sheets>
     <sheet name="medicine" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="76">
   <si>
     <t>test</t>
   </si>
@@ -15369,7 +15369,7 @@
             <c:strRef>
               <c:f>malt!$A$2:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="68"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>test 1</c:v>
                 </c:pt>
@@ -15570,9 +15570,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>test 67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>test 68</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15783,9 +15780,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15822,7 +15816,7 @@
             <c:strRef>
               <c:f>malt!$A$2:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="68"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>test 1</c:v>
                 </c:pt>
@@ -16023,9 +16017,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>test 67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>test 68</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16236,9 +16227,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16275,7 +16263,7 @@
             <c:strRef>
               <c:f>malt!$A$2:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="68"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>test 1</c:v>
                 </c:pt>
@@ -16476,9 +16464,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>test 67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>test 68</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16689,9 +16674,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16728,7 +16710,7 @@
             <c:strRef>
               <c:f>malt!$A$2:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="68"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>test 1</c:v>
                 </c:pt>
@@ -16929,9 +16911,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>test 67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>test 68</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17142,9 +17121,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17181,7 +17157,7 @@
             <c:strRef>
               <c:f>malt!$A$2:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="68"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>test 1</c:v>
                 </c:pt>
@@ -17382,9 +17358,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>test 67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>test 68</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17595,9 +17568,6 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37547,7 +37517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786C031C-8A72-45EA-A05A-CAECB49B208C}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
@@ -40279,8 +40249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46489A07-455F-41D7-9DF9-30B3291411FF}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41655,7 +41625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F9DD6-2393-4673-8C4C-F673D659BC12}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
@@ -44635,8 +44605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D5E9A1-E599-4991-9EC5-B8BB90448D89}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A68" sqref="A2:XFD68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46021,10 +45991,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14D3F4D-8EDE-468A-BCD8-05E1E1D7A42E}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47390,26 +47360,6 @@
       </c>
       <c r="F68">
         <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69">
-        <v>126</v>
-      </c>
-      <c r="C69">
-        <v>41</v>
-      </c>
-      <c r="D69">
-        <v>104</v>
-      </c>
-      <c r="E69">
-        <v>79</v>
-      </c>
-      <c r="F69">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
